--- a/biology/Botanique/Psychotria_korupensis/Psychotria_korupensis.xlsx
+++ b/biology/Botanique/Psychotria_korupensis/Psychotria_korupensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychotria korupensis O.Lachenaud est une espèce de plantes du genre Psychotria, de la famille des Rubiaceae[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychotria korupensis O.Lachenaud est une espèce de plantes du genre Psychotria, de la famille des Rubiaceae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbrisseau qui se développe dans la forêt atlantique de basse altitude. Il peut atteindre 2 m de hauteur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbrisseau qui se développe dans la forêt atlantique de basse altitude. Il peut atteindre 2 m de hauteur.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier Lachenaud. Révision du genre Psychotria (Rubiaceae) en Afrique occidentale et centrale [Revision of the West and Central African genus Psychotria (Rubiaceae)]. Opera Bot. Belg. 17: 258 (2019)
 </t>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique du Cameroun et relativement rare. Elle a été observée à trois reprises dans l'enceinte du parc national de Korup, auquel elle doit son épithète spécifique korupensis, notamment à proximité de Chimpanzee Camp, par les équipes de Vincent Droissart, puis par Ingrid Parmentier[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique du Cameroun et relativement rare. Elle a été observée à trois reprises dans l'enceinte du parc national de Korup, auquel elle doit son épithète spécifique korupensis, notamment à proximité de Chimpanzee Camp, par les équipes de Vincent Droissart, puis par Ingrid Parmentier. 
 </t>
         </is>
       </c>
